--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,11 +30,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据交易程序配置生成csv表格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装赢顺云交易</t>
+    <t>日盘，96，169账户互换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -427,15 +423,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>42811</v>
+        <v>43041</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日盘，96，169账户互换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,11 +73,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -99,8 +92,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C27" totalsRowShown="0">
-  <autoFilter ref="A1:C27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C26" totalsRowShown="0">
+  <autoFilter ref="A1:C26"/>
   <tableColumns count="3">
     <tableColumn id="1" name="时间"/>
     <tableColumn id="2" name="标题"/>
@@ -397,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -421,14 +414,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>43041</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级郑州day101行情：
+1. 持仓量字段有意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已更新所有地方，观察结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,9 +82,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -414,6 +429,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>43054</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,12 +30,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升级郑州day101行情：
-1. 持仓量字段有意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已更新所有地方，观察结果</t>
+    <t>更新主力合约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +403,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,13 +426,10 @@
     </row>
     <row r="2" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>43054</v>
+        <v>43061</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,16 @@
   </si>
   <si>
     <t>更新主力合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.合并账户，重新部署
+2. 黑色系今天晚上先停了吧，dlj dli  dljm三个品种
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,10 +436,24 @@
     </row>
     <row r="2" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>43061</v>
+        <v>43070</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,17 +30,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新主力合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.合并账户，重新部署
-2. 黑色系今天晚上先停了吧，dlj dli  dljm三个品种
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州出现重启系统，手动平仓后，启动系统后，从柜台查询仍有仓位问题
+启动从本地读取仓位，观察结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续观察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现从与服务器自动部署交易服务器设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,10 +115,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C26" totalsRowShown="0">
-  <autoFilter ref="A1:C26"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D25" totalsRowShown="0">
+  <autoFilter ref="A1:D25"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="时间"/>
+    <tableColumn id="4" name="状态"/>
     <tableColumn id="2" name="标题"/>
     <tableColumn id="3" name="说明"/>
   </tableColumns>
@@ -410,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -418,42 +422,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="1" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>43077</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>43077</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,9 @@
   <si>
     <t>实现从与服务器自动部署交易服务器设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223账户的日盘log有输出  夜盘没有什么 是什么原因了？</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,6 +463,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>43108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,20 +34,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郑州出现重启系统，手动平仓后，启动系统后，从柜台查询仍有仓位问题
-启动从本地读取仓位，观察结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续观察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现从与服务器自动部署交易服务器设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>223账户的日盘log有输出  夜盘没有什么 是什么原因了？</t>
+    <t>迁移郑州程序到新服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -93,15 +85,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,8 +107,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D25" totalsRowShown="0">
-  <autoFilter ref="A1:D25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D24" totalsRowShown="0">
+  <autoFilter ref="A1:D24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="时间"/>
     <tableColumn id="4" name="状态"/>
@@ -417,15 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.625" customWidth="1"/>
     <col min="4" max="4" width="75.625" customWidth="1"/>
   </cols>
@@ -444,32 +434,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>43077</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>43117</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>43077</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>43108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="20475" windowHeight="8955"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="20475" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +34,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迁移郑州程序到新服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待处理</t>
+    <t xml:space="preserve">HZP策略，三个市场，都存在如下问题：
+Deferred: strategy id:3; act:0; sig_openclose:0, sig id:0
+strategy id:3;PlaceOrder: do support sig_openclose value:0;
+GetAvailableVol: strategy id:3; act:0; sig_openclose:0, sig id:0
+Deferred: strategy id:3; act:0; sig_openclose:0, sig id:0
+strategy id:3;PlaceOrder: do support sig_openclose value:0;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zce211部署debug trader，诊断问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位为HZP问题，等待解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,12 +95,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,13 +421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.625" customWidth="1"/>
     <col min="4" max="4" width="75.625" customWidth="1"/>
@@ -434,15 +447,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>43117</v>
+        <v>43179</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="165" windowWidth="20475" windowHeight="8925"/>
+    <workbookView xWindow="600" yWindow="225" windowWidth="20475" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,13 @@
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34,21 +37,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">HZP策略，三个市场，都存在如下问题：
-Deferred: strategy id:3; act:0; sig_openclose:0, sig id:0
-strategy id:3;PlaceOrder: do support sig_openclose value:0;
-GetAvailableVol: strategy id:3; act:0; sig_openclose:0, sig id:0
-Deferred: strategy id:3; act:0; sig_openclose:0, sig id:0
-strategy id:3;PlaceOrder: do support sig_openclose value:0;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zce211部署debug trader，诊断问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位为HZP问题，等待解决</t>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medi 郑州程序还原为release版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,15 +88,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -120,13 +110,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D24" totalsRowShown="0">
-  <autoFilter ref="A1:D24"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F19" totalsRowShown="0">
+  <autoFilter ref="A1:F19"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="时间"/>
-    <tableColumn id="4" name="状态"/>
-    <tableColumn id="2" name="标题"/>
-    <tableColumn id="3" name="说明"/>
+    <tableColumn id="4" name="标题"/>
+    <tableColumn id="2" name="描述"/>
+    <tableColumn id="3" name="优先级"/>
+    <tableColumn id="5" name="状态"/>
+    <tableColumn id="6" name="日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,56 +411,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.625" customWidth="1"/>
-    <col min="4" max="4" width="75.625" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="162" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>43179</v>
-      </c>
+    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+      <c r="D2" s="1">
+        <v>43217</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/meditations/docs/ToDos.xlsx
+++ b/meditations/docs/ToDos.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>标题</t>
   </si>
@@ -41,7 +37,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>medi 郑州程序还原为release版本</t>
+    <t>96账户测试新策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,10 +106,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F19" totalsRowShown="0">
-  <autoFilter ref="A1:F19"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="时间"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19"/>
+  <tableColumns count="5">
     <tableColumn id="4" name="标题"/>
     <tableColumn id="2" name="描述"/>
     <tableColumn id="3" name="优先级"/>
@@ -411,21 +406,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,16 +436,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43217</v>
+      <c r="C2" s="1"/>
+      <c r="E2">
+        <v>20180531</v>
       </c>
     </row>
   </sheetData>
